--- a/Question_Set2/Programming skills/Apache Spark for Data Engineers.xlsx
+++ b/Question_Set2/Programming skills/Apache Spark for Data Engineers.xlsx
@@ -16,23 +16,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'True or false: Spark supports caching data in memory for individual clusters.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': "What will be the output of the code below?spark.createDataFrame([('Spark', 1)], ['Course', 'Rank']).collect()", 'ques_type': 2, 'options': ["[Row(Course='Spark', Rank=1)]", "[Row(_1='Spark', _2=1)]", '[Row(Spark=Course, 1=Rank)]', '[Row(Spark=_1, 1=_2)]'], 'score': "[Row(Course='Spark', Rank=1)]"}, {'title': 'When you ran the following code to create two DataFrames named “df1” and “df2,” it resulted in an analysis error.  df1 = spark.createDataFrame([[1, 2]], ["col1", "col2"])df2 = spark.createDataFrame([[2, 3]], ["col2", "col3"]) You expected the output as per Table A, shown below. Which operation should you perform to obtain the output you expected? Table A', 'ques_type': 2, 'options': ['df1.unionByName(df2).show()', 'df1.join(df2).show()', 'df2.unionByName(df1).show()', 'df1.unionByName(df2, allowMissingColumns=True).show()', 'df2.join(df1).show()'], 'score': 'df1.unionByName(df2, allowMissingColumns=True).show()'}, {'title': "What will be the output of the code below?sparkContext.parallelize([(1, 'apple'), (1, 'mango')]).countByKey().items()", 'ques_type': 2, 'options': ["[((1, 'apple'), 1), ((2, 'mango'), 1)]", '[(1, 2)]', "[(1, 'apple'), (1, 'mango')]", '[(‘apple’, ‘mango’)]'], 'score': '[(1, 2)]'}]</t>
+    <t>questions = [
+    {
+        "title": "True or false: Spark supports caching data in memory for individual clusters.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "What will be the output of the code below?spark.createDataFrame([('Spark', 1)], ['Course', 'Rank']).collect()",
+        "ques_type": 2,
+        "options": [
+            "[Row(Course='Spark', Rank=1)]",
+            "[Row(_1='Spark', _2=1)]",
+            "[Row(Spark=Course, 1=Rank)]",
+            "[Row(Spark=_1, 1=_2)]"
+        ],
+        "score": "[Row(Course='Spark', Rank=1)]"
+    },
+    {
+        "title": "When you ran the following code to create two DataFrames named \u201cdf1\u201d and \u201cdf2,\u201d it resulted in an analysis error.  df1 = spark.createDataFrame([[1, 2]], [\"col1\", \"col2\"])df2 = spark.createDataFrame([[2, 3]], [\"col2\", \"col3\"]) You expected the output as per Table A, shown below. Which operation should you perform to obtain the output you expected? Table A",
+        "ques_type": 2,
+        "options": [
+            "df1.unionByName(df2).show()",
+            "df1.join(df2).show()",
+            "df2.unionByName(df1).show()",
+            "df1.unionByName(df2, allowMissingColumns=True).show()",
+            "df2.join(df1).show()"
+        ],
+        "score": "df1.unionByName(df2, allowMissingColumns=True).show()"
+    },
+    {
+        "title": "What will be the output of the code below?sparkContext.parallelize([(1, 'apple'), (1, 'mango')]).countByKey().items()",
+        "ques_type": 2,
+        "options": [
+            "[((1, 'apple'), 1), ((2, 'mango'), 1)]",
+            "[(1, 2)]",
+            "[(1, 'apple'), (1, 'mango')]",
+            "[(\u2018apple\u2019, \u2018mango\u2019)]"
+        ],
+        "score": "[(1, 2)]"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +392,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
